--- a/myDSASheet.xlsx
+++ b/myDSASheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C5669F-C329-4EFF-BDA0-1CEFC91D65FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27586E37-BF30-48D4-BF64-2026FDE40BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{24560BBA-C2C5-4846-9E9C-E374F9E870B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{24560BBA-C2C5-4846-9E9C-E374F9E870B3}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,16 @@
     <sheet name="Back track" sheetId="4" r:id="rId5"/>
     <sheet name="Stack And Que" sheetId="6" r:id="rId6"/>
     <sheet name="Array" sheetId="11" r:id="rId7"/>
-    <sheet name="Binary Search" sheetId="5" r:id="rId8"/>
-    <sheet name="Heap" sheetId="7" r:id="rId9"/>
-    <sheet name="Bit Manupaltion" sheetId="9" r:id="rId10"/>
-    <sheet name="Linked List" sheetId="10" r:id="rId11"/>
-    <sheet name="Sorting" sheetId="13" r:id="rId12"/>
-    <sheet name="Hashing" sheetId="15" r:id="rId13"/>
-    <sheet name="Good_one" sheetId="16" r:id="rId14"/>
-    <sheet name="Greedy" sheetId="20" r:id="rId15"/>
-    <sheet name="Contest" sheetId="18" r:id="rId16"/>
+    <sheet name="Maths" sheetId="21" r:id="rId8"/>
+    <sheet name="Binary Search" sheetId="5" r:id="rId9"/>
+    <sheet name="Heap" sheetId="7" r:id="rId10"/>
+    <sheet name="Bit Manupaltion" sheetId="9" r:id="rId11"/>
+    <sheet name="Linked List" sheetId="10" r:id="rId12"/>
+    <sheet name="Sorting" sheetId="13" r:id="rId13"/>
+    <sheet name="Hashing" sheetId="15" r:id="rId14"/>
+    <sheet name="Good_one" sheetId="16" r:id="rId15"/>
+    <sheet name="Greedy" sheetId="20" r:id="rId16"/>
+    <sheet name="Contest" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="417">
   <si>
     <t>Dynamic Programming</t>
   </si>
@@ -1241,27 +1242,6 @@
     <t>GFG Jobathon</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rod Cutting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Pallindrome Partioning-1 </t>
   </si>
   <si>
@@ -1305,13 +1285,28 @@
   </si>
   <si>
     <t xml:space="preserve"> Find and Replace Pattern</t>
+  </si>
+  <si>
+    <t>Wave Array/wiggleSort_1/wiggle_sort_2</t>
+  </si>
+  <si>
+    <t>Sorted Permuation Rank</t>
+  </si>
+  <si>
+    <t>Power of two integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rod Cutting </t>
+  </si>
+  <si>
+    <t>Kth Smallest Pair distance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1355,29 +1350,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1389,22 +1363,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1437,6 +1397,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1459,25 +1441,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1795,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE52A6E-A9FB-4558-BD53-426E4F9C757D}">
   <dimension ref="A3:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1854,7 +1834,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1869,12 +1849,12 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -1888,7 +1868,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="10" t="s">
         <v>370</v>
       </c>
     </row>
@@ -1903,7 +1883,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1913,7 +1893,7 @@
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1928,13 +1908,13 @@
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>397</v>
+      <c r="A29" s="10" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -1963,12 +1943,12 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1988,7 +1968,7 @@
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2023,12 +2003,12 @@
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2038,12 +2018,12 @@
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2053,27 +2033,27 @@
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="A56" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2083,42 +2063,42 @@
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2129,7 +2109,7 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
@@ -2149,12 +2129,12 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -2164,111 +2144,157 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870F79AF-7543-48BE-8376-439146C1B11E}">
-  <dimension ref="A2:A24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C7F874-31F3-4E50-B6EB-F2AB5BA715EC}">
+  <dimension ref="A2:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="1" max="1" width="52.109375" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
-        <v>242</v>
+      <c r="A2" s="11" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>243</v>
+      <c r="A4" s="10" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>244</v>
+      <c r="A5" s="10" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>245</v>
+      <c r="A6" s="10" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>247</v>
+      <c r="A7" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>248</v>
+      <c r="A9" s="10" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>249</v>
+      <c r="A10" s="10" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>250</v>
+      <c r="A11" s="10" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
+      <c r="A12" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A27" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>259</v>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2278,21 +2304,136 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870F79AF-7543-48BE-8376-439146C1B11E}">
+  <dimension ref="A2:A24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.109375" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A14" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D66AE3C-B73C-40F8-942A-3458ED56C4D7}">
   <dimension ref="A2:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.77734375" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="15"/>
+    <col min="1" max="1" width="37.77734375" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="9" t="s">
         <v>260</v>
       </c>
     </row>
@@ -2302,22 +2443,22 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="10" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="10" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="11" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2327,32 +2468,32 @@
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="10" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="10" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="10" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="10" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="10" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2362,82 +2503,82 @@
       </c>
     </row>
     <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="12" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="10" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="10" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="10" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="10" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="10" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="10" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="10" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="10" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="10" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="10" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="10" t="s">
         <v>286</v>
       </c>
     </row>
@@ -2446,7 +2587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9031D0-1765-46F0-98C6-C4974A1D6432}">
   <dimension ref="A1:A23"/>
   <sheetViews>
@@ -2460,7 +2601,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>343</v>
       </c>
     </row>
@@ -2559,9 +2700,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456DF879-5C47-478F-86E0-CFB8AE48E89A}">
-  <dimension ref="A2:A7"/>
+  <dimension ref="A2:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -2569,32 +2710,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2602,7 +2748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DF3862-3CEB-45AB-AA50-33FE84DCBF22}">
   <dimension ref="A2:A3"/>
   <sheetViews>
@@ -2630,7 +2776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AF3A2F-8AAB-4291-B3D8-45CD66234887}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2644,7 +2790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8712BCF-DBAC-4626-B9BB-8A0F3371EE50}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2676,19 +2822,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7404E55C-E8A2-487D-89D4-F3EAC347DAB5}">
   <dimension ref="A2:B58"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48" style="3" customWidth="1"/>
-    <col min="2" max="2" width="38.21875" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="48" style="10" customWidth="1"/>
+    <col min="2" max="2" width="38.21875" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2711,7 +2857,7 @@
       <c r="A7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="10" t="s">
         <v>368</v>
       </c>
     </row>
@@ -2721,7 +2867,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2736,12 +2882,12 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2771,7 +2917,7 @@
       </c>
     </row>
     <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2786,7 +2932,7 @@
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2796,7 +2942,7 @@
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="10" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2816,7 +2962,7 @@
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2826,42 +2972,42 @@
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="10" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2881,77 +3027,77 @@
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="10" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="10" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="10" t="s">
         <v>241</v>
       </c>
     </row>
@@ -2966,71 +3112,72 @@
   <dimension ref="A2:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.109375" customWidth="1"/>
+    <col min="1" max="1" width="55.109375" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="10" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="10" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="10" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="10" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3044,14 +3191,14 @@
   <dimension ref="A2:B45"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="120.77734375" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="46.5546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="120.77734375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
@@ -3066,7 +3213,7 @@
       <c r="A4" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="10" t="s">
         <v>367</v>
       </c>
     </row>
@@ -3074,17 +3221,17 @@
       <c r="A5" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="10" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3119,7 +3266,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="10" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3134,7 +3281,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="10" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3149,30 +3296,30 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="10" t="s">
         <v>395</v>
       </c>
     </row>
@@ -3182,12 +3329,12 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="10" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3197,7 +3344,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="10" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3207,22 +3354,22 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3232,16 +3379,16 @@
       </c>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A37" s="7"/>
+      <c r="A37" s="11"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -3250,28 +3397,28 @@
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>407</v>
+      <c r="A44" s="10" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>405</v>
+      <c r="A45" s="15" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -3288,17 +3435,17 @@
   <dimension ref="A2:B37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.44140625" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="89.44140625" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3318,22 +3465,22 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="10" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="7" t="s">
         <v>385</v>
       </c>
     </row>
@@ -3346,7 +3493,7 @@
       <c r="A12" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="10" t="s">
         <v>390</v>
       </c>
     </row>
@@ -3366,7 +3513,7 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="10" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3381,67 +3528,67 @@
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="10" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="15" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="15" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="15" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="10" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="11" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="10" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="10" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="10" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="10" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3461,155 +3608,141 @@
   <dimension ref="A3:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" customWidth="1"/>
-    <col min="2" max="2" width="99.109375" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="99.109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="10" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
+    </row>
+    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A17" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A29" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3626,8 +3759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687E28C7-46C6-4994-B635-8EF0A47BCA84}">
   <dimension ref="A2:A68"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3637,7 +3770,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>288</v>
       </c>
     </row>
@@ -3652,7 +3785,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>291</v>
       </c>
     </row>
@@ -3721,7 +3854,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>305</v>
       </c>
@@ -3762,7 +3895,7 @@
       </c>
     </row>
     <row r="30" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3797,7 +3930,7 @@
       </c>
     </row>
     <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="8" t="s">
         <v>287</v>
       </c>
     </row>
@@ -3822,12 +3955,12 @@
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="7" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="7" t="s">
         <v>323</v>
       </c>
     </row>
@@ -3862,8 +3995,8 @@
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>330</v>
+      <c r="A51" s="7" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
@@ -3921,24 +4054,24 @@
         <v>342</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
+    <row r="68" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
-        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -3948,10 +4081,38 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A54B08-B280-4794-99C3-C0FD2AC4D0BA}">
-  <dimension ref="A2:A28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711A608E-630B-409E-91CA-8EDBB9FB889C}">
+  <dimension ref="A3:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A54B08-B280-4794-99C3-C0FD2AC4D0BA}">
+  <dimension ref="A2:A29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -3962,7 +4123,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4002,7 +4163,7 @@
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4047,7 +4208,7 @@
       </c>
     </row>
     <row r="21" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4071,169 +4232,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C7F874-31F3-4E50-B6EB-F2AB5BA715EC}">
-  <dimension ref="A2:A35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="52.109375" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>219</v>
+    <row r="28" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>224</v>
+      <c r="A29" s="7" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/myDSASheet.xlsx
+++ b/myDSASheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27586E37-BF30-48D4-BF64-2026FDE40BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7EAC61-73EA-4122-A5B2-BEC1495DA2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{24560BBA-C2C5-4846-9E9C-E374F9E870B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{24560BBA-C2C5-4846-9E9C-E374F9E870B3}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="391">
   <si>
     <t>Dynamic Programming</t>
   </si>
@@ -615,9 +615,6 @@
     <t>Sliding Window maximum</t>
   </si>
   <si>
-    <t>First Non Repeating Charcter</t>
-  </si>
-  <si>
     <t>Task Scheduler</t>
   </si>
   <si>
@@ -921,72 +918,9 @@
     <t>Maximum Absolute Differnce</t>
   </si>
   <si>
-    <t>First Missing Positive integer</t>
-  </si>
-  <si>
-    <t>Merge Overlapping interval</t>
-  </si>
-  <si>
-    <t>Trapping Rain water</t>
-  </si>
-  <si>
-    <t>Maximum Sum subarray</t>
-  </si>
-  <si>
-    <t>Maximum Consecutive one -1</t>
-  </si>
-  <si>
-    <t>Maximum Consecutive one -2</t>
-  </si>
-  <si>
-    <t>Maximum Consecutive one -3</t>
-  </si>
-  <si>
-    <t>Flip</t>
-  </si>
-  <si>
-    <t>Sum of all Aubmatrices</t>
-  </si>
-  <si>
-    <t>2D prefix sum concept</t>
-  </si>
-  <si>
-    <t>Rotate matrix by 90</t>
-  </si>
-  <si>
-    <t>Print matrix in spiral way</t>
-  </si>
-  <si>
-    <t>Closest Min max</t>
-  </si>
-  <si>
-    <t>Group all anagram together</t>
-  </si>
-  <si>
-    <t>Find / and count number of subarray with sum zero</t>
-  </si>
-  <si>
-    <t>Count number of subarray with sum k</t>
-  </si>
-  <si>
-    <t>Pascal Triangle</t>
-  </si>
-  <si>
-    <t>Power (x,n)</t>
-  </si>
-  <si>
     <t>Find Next permutation</t>
   </si>
   <si>
-    <t>Longest substring without any repeating Char</t>
-  </si>
-  <si>
-    <t>Number of subarray with prefix xor</t>
-  </si>
-  <si>
-    <t>Longest consecutive sequence in array</t>
-  </si>
-  <si>
     <t>Encode and Decode string</t>
   </si>
   <si>
@@ -1005,36 +939,18 @@
     <t>Contain Duplicate</t>
   </si>
   <si>
-    <t>Kth Row of pascal triangle</t>
-  </si>
-  <si>
     <t>find Duplicate in Array</t>
   </si>
   <si>
-    <t>Merge intervals</t>
-  </si>
-  <si>
     <t>Repeat ans Missing Number Array</t>
   </si>
   <si>
-    <t>Merger overlaping interval</t>
-  </si>
-  <si>
     <t>Set matrix zero</t>
   </si>
   <si>
-    <t>Spiral order matrix - 1/2</t>
-  </si>
-  <si>
     <t>Largest Number</t>
   </si>
   <si>
-    <t>Add one to number</t>
-  </si>
-  <si>
-    <t>N/3 Repeat number</t>
-  </si>
-  <si>
     <t>Max distance</t>
   </si>
   <si>
@@ -1047,9 +963,6 @@
     <t>Anti Diagonal</t>
   </si>
   <si>
-    <t>Hotel Booking possible</t>
-  </si>
-  <si>
     <t>Min Steps in infinite grid</t>
   </si>
   <si>
@@ -1272,24 +1185,15 @@
     <t xml:space="preserve"> Minimum Cost Tree From Leaf Values</t>
   </si>
   <si>
-    <t>Find the Winner of the Circular Game</t>
-  </si>
-  <si>
     <t>Minimum Time to Complete Trips</t>
   </si>
   <si>
     <t>Minimum Deletions to Make Character Frequencies Unique</t>
   </si>
   <si>
-    <t>wiggle Subsequence</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Find and Replace Pattern</t>
   </si>
   <si>
-    <t>Wave Array/wiggleSort_1/wiggle_sort_2</t>
-  </si>
-  <si>
     <t>Sorted Permuation Rank</t>
   </si>
   <si>
@@ -1300,6 +1204,24 @@
   </si>
   <si>
     <t>Kth Smallest Pair distance</t>
+  </si>
+  <si>
+    <t>minimum swap- 1/2</t>
+  </si>
+  <si>
+    <t>Mother Vertex</t>
+  </si>
+  <si>
+    <t>Jump Game _1</t>
+  </si>
+  <si>
+    <t>Jump Game _2</t>
+  </si>
+  <si>
+    <t>Longest Substring without repeating character</t>
+  </si>
+  <si>
+    <t>Longest consecutive sequence in array that sum to zero</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE52A6E-A9FB-4558-BD53-426E4F9C757D}">
   <dimension ref="A3:B74"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
@@ -1834,7 +1756,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1849,12 +1771,12 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -1869,7 +1791,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
@@ -1914,7 +1836,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -2109,32 +2031,32 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -2148,7 +2070,7 @@
   <dimension ref="A2:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2159,102 +2081,102 @@
   <sheetData>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.4">
@@ -2264,37 +2186,37 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2319,52 +2241,52 @@
   <sheetData>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.4">
@@ -2374,42 +2296,42 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2434,27 +2356,27 @@
   <sheetData>
     <row r="2" spans="1:1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A2" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.4">
@@ -2464,122 +2386,122 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2602,97 +2524,97 @@
   <sheetData>
     <row r="1" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -2715,32 +2637,32 @@
   <sheetData>
     <row r="2" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2760,12 +2682,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -2778,14 +2700,28 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AF3A2F-8AAB-4291-B3D8-45CD66234887}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2805,12 +2741,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -2822,8 +2758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7404E55C-E8A2-487D-89D4-F3EAC347DAB5}">
   <dimension ref="A2:B58"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2839,60 +2775,60 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2912,7 +2848,7 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2922,22 +2858,22 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2968,7 +2904,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -3017,7 +2953,7 @@
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="7" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3027,7 +2963,7 @@
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3076,29 +3012,34 @@
         <v>105</v>
       </c>
     </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3123,62 +3064,62 @@
   <sheetData>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3206,7 +3147,7 @@
         <v>106</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3214,7 +3155,7 @@
         <v>107</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3222,7 +3163,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3320,7 +3261,7 @@
         <v>127</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -3388,7 +3329,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -3413,12 +3354,12 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3461,12 +3402,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3476,25 +3417,25 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -3504,12 +3445,12 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3529,7 +3470,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
@@ -3539,22 +3480,22 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.4">
@@ -3564,7 +3505,7 @@
     </row>
     <row r="31" spans="1:1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -3574,7 +3515,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
@@ -3607,8 +3548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5E91EB-A79A-4586-A239-D112AA3DF583}">
   <dimension ref="A3:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3624,17 +3565,17 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3644,12 +3585,12 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3659,31 +3600,31 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>187</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.4">
@@ -3693,42 +3634,42 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.4">
@@ -3738,12 +3679,12 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3757,10 +3698,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687E28C7-46C6-4994-B635-8EF0A47BCA84}">
-  <dimension ref="A2:A68"/>
+  <dimension ref="A2:A39"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3771,307 +3712,162 @@
   <sheetData>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>291</v>
+      <c r="A6" s="3" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>295</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>305</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A30" s="4" t="s">
-        <v>152</v>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
-        <v>287</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -4095,12 +3891,12 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -4112,7 +3908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A54B08-B280-4794-99C3-C0FD2AC4D0BA}">
   <dimension ref="A2:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -4234,12 +4030,12 @@
     </row>
     <row r="28" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
